--- a/data/online-dependency-open_template_v2.xlsx
+++ b/data/online-dependency-open_template_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Source Code\Python\jupiter-service-inventory-importer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114BE33A-C917-4E94-ABD6-1D78B4B14AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0438E8-93C4-46F2-AA5F-3F6F6361A2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="4440" windowWidth="21336" windowHeight="13572" xr2:uid="{E9D40224-B996-4074-BAC3-1CED93BA3F06}"/>
+    <workbookView xWindow="4812" yWindow="7092" windowWidth="21336" windowHeight="13572" xr2:uid="{E9D40224-B996-4074-BAC3-1CED93BA3F06}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumer Template" sheetId="2" r:id="rId1"/>
@@ -93,12 +93,6 @@
     <t>mainframe_bulk_ach_transaction_code</t>
   </si>
   <si>
-    <t>mainframe_direct_accress_file_name</t>
-  </si>
-  <si>
-    <t>mainframe_direct_accress_cics_name</t>
-  </si>
-  <si>
     <t>batch_eod_type</t>
   </si>
   <si>
@@ -352,6 +346,12 @@
   </si>
   <si>
     <t>43_ALS SM_6A297103CC6B0A6469297D65A8E434CF</t>
+  </si>
+  <si>
+    <t>mainframe_direct_access_file_name</t>
+  </si>
+  <si>
+    <t>mainframe_direct_access_cics_name</t>
   </si>
 </sst>
 </file>
@@ -1039,50 +1039,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768A2715-9E44-44E7-8F0B-336BABD4A3DA}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.59765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="55" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="59.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.59765625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.09765625" style="4" customWidth="1"/>
-    <col min="10" max="11" width="20.09765625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="27.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="29.59765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.08984375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="20.08984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="27.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="29.6328125" style="4" customWidth="1"/>
     <col min="19" max="19" width="12" style="4" customWidth="1"/>
-    <col min="20" max="20" width="14.59765625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="13.3984375" style="4" customWidth="1"/>
-    <col min="22" max="22" width="15.09765625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="15.59765625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.8984375" style="4" customWidth="1"/>
-    <col min="26" max="27" width="14.59765625" style="4" customWidth="1"/>
-    <col min="28" max="28" width="14.8984375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="14.6328125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="13.36328125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="15.08984375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="15.6328125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.90625" style="4" customWidth="1"/>
+    <col min="26" max="27" width="14.6328125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="14.90625" style="4" customWidth="1"/>
     <col min="29" max="29" width="12" style="4" customWidth="1"/>
     <col min="30" max="30" width="12" style="2" customWidth="1"/>
     <col min="31" max="36" width="12" style="4" customWidth="1"/>
-    <col min="37" max="37" width="31.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="42.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="40.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="41.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="51" width="12.09765625" style="4" customWidth="1"/>
-    <col min="52" max="52" width="18.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="31.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="58" width="29.59765625" style="4" customWidth="1"/>
-    <col min="59" max="59" width="21.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="27.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="42.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="40.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="41.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="51" width="12.08984375" style="4" customWidth="1"/>
+    <col min="52" max="52" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="31.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="29.6328125" style="4" customWidth="1"/>
+    <col min="59" max="59" width="21.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="27.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="25" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1140,10 +1140,10 @@
         <v>10</v>
       </c>
       <c r="AM1" s="6" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="AO1" s="8"/>
       <c r="AP1" s="8"/>
@@ -1157,13 +1157,13 @@
       <c r="AX1" s="8"/>
       <c r="AY1" s="8"/>
       <c r="AZ1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB1" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="BC1" s="8"/>
       <c r="BD1" s="8"/>
@@ -1184,92 +1184,92 @@
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="BG7" s="2">
         <v>100</v>
@@ -1278,444 +1278,444 @@
         <v>31</v>
       </c>
       <c r="BI7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BJ7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/online-dependency-open_template_v2.xlsx
+++ b/data/online-dependency-open_template_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Source Code\Python\jupiter-service-inventory-importer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0438E8-93C4-46F2-AA5F-3F6F6361A2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403F783D-E01D-4BF8-B949-F4621D632196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4812" yWindow="7092" windowWidth="21336" windowHeight="13572" xr2:uid="{E9D40224-B996-4074-BAC3-1CED93BA3F06}"/>
+    <workbookView xWindow="-720" yWindow="4392" windowWidth="25920" windowHeight="13572" xr2:uid="{E9D40224-B996-4074-BAC3-1CED93BA3F06}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumer Template" sheetId="2" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>118_EAI - Z OS_89056B831AEA43DDB56E4BC8009D2768</t>
   </si>
   <si>
-    <t>11, 18</t>
-  </si>
-  <si>
     <t>1, 2</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>mainframe_direct_access_cics_name</t>
+  </si>
+  <si>
+    <t>11, 18, 45</t>
   </si>
 </sst>
 </file>
@@ -1039,50 +1039,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768A2715-9E44-44E7-8F0B-336BABD4A3DA}">
   <dimension ref="A1:BJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO11" sqref="AO11"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BL9" sqref="BL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.59765625" style="2" customWidth="1"/>
     <col min="5" max="5" width="55" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="59.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.6328125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.08984375" style="4" customWidth="1"/>
-    <col min="10" max="11" width="20.08984375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="27.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="29.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.59765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.09765625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="20.09765625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="27.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="29.59765625" style="4" customWidth="1"/>
     <col min="19" max="19" width="12" style="4" customWidth="1"/>
-    <col min="20" max="20" width="14.6328125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="13.36328125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="15.08984375" style="4" customWidth="1"/>
-    <col min="23" max="23" width="15.6328125" style="4" customWidth="1"/>
-    <col min="24" max="24" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.90625" style="4" customWidth="1"/>
-    <col min="26" max="27" width="14.6328125" style="4" customWidth="1"/>
-    <col min="28" max="28" width="14.90625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="14.59765625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="13.3984375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="15.09765625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="15.59765625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.8984375" style="4" customWidth="1"/>
+    <col min="26" max="27" width="14.59765625" style="4" customWidth="1"/>
+    <col min="28" max="28" width="14.8984375" style="4" customWidth="1"/>
     <col min="29" max="29" width="12" style="4" customWidth="1"/>
     <col min="30" max="30" width="12" style="2" customWidth="1"/>
     <col min="31" max="36" width="12" style="4" customWidth="1"/>
-    <col min="37" max="37" width="31.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="42.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="40.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="41.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="51" width="12.08984375" style="4" customWidth="1"/>
-    <col min="52" max="52" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="31.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="58" width="29.6328125" style="4" customWidth="1"/>
-    <col min="59" max="59" width="21.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="27.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="42.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="40.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="41.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="51" width="12.09765625" style="4" customWidth="1"/>
+    <col min="52" max="52" width="18.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="31.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="29.59765625" style="4" customWidth="1"/>
+    <col min="59" max="59" width="21.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="27.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="25" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1140,10 +1140,10 @@
         <v>10</v>
       </c>
       <c r="AM1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN1" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="AO1" s="8"/>
       <c r="AP1" s="8"/>
@@ -1278,262 +1278,262 @@
         <v>31</v>
       </c>
       <c r="BI7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BJ7" s="2" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1544,10 +1544,10 @@
         <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1558,10 +1558,10 @@
         <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1572,10 +1572,10 @@
         <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1586,7 +1586,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>17</v>
@@ -1600,122 +1600,122 @@
         <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/online-dependency-open_template_v2.xlsx
+++ b/data/online-dependency-open_template_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Source Code\Python\jupiter-service-inventory-importer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403F783D-E01D-4BF8-B949-F4621D632196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFEC922-D11F-455F-90F5-65C95C3D1F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-720" yWindow="4392" windowWidth="25920" windowHeight="13572" xr2:uid="{E9D40224-B996-4074-BAC3-1CED93BA3F06}"/>
+    <workbookView xWindow="2352" yWindow="3480" windowWidth="21336" windowHeight="13572" xr2:uid="{E9D40224-B996-4074-BAC3-1CED93BA3F06}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumer Template" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
   <si>
     <t>consumer_app_id</t>
   </si>
@@ -352,6 +352,24 @@
   </si>
   <si>
     <t>11, 18, 45</t>
+  </si>
+  <si>
+    <t>100_EBS_2651C71AAA9915B8F7044F388F8B5EF3</t>
+  </si>
+  <si>
+    <t>100_EBS_4EB46DD6C644398BBAC0A11CBC98846E</t>
+  </si>
+  <si>
+    <t>100_EBS_7D09E83A3C3A01CA5A65A5D6EB34E2F9</t>
+  </si>
+  <si>
+    <t>27_ST (SA)_555F96851410660A08713F0FC714B04E</t>
+  </si>
+  <si>
+    <t>654_ANYID_186347CE17A9F0D16651C0881111D5A3</t>
+  </si>
+  <si>
+    <t>100_EBS_A9F665AE5AF6848F54770E5DEF91B2A3</t>
   </si>
 </sst>
 </file>
@@ -1037,52 +1055,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768A2715-9E44-44E7-8F0B-336BABD4A3DA}">
-  <dimension ref="A1:BJ38"/>
+  <dimension ref="A1:BJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BL9" sqref="BL9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.59765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="55" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="59.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.59765625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.09765625" style="4" customWidth="1"/>
-    <col min="10" max="11" width="20.09765625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="27.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="29.59765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.08984375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="20.08984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="27.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="29.6328125" style="4" customWidth="1"/>
     <col min="19" max="19" width="12" style="4" customWidth="1"/>
-    <col min="20" max="20" width="14.59765625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="13.3984375" style="4" customWidth="1"/>
-    <col min="22" max="22" width="15.09765625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="15.59765625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.8984375" style="4" customWidth="1"/>
-    <col min="26" max="27" width="14.59765625" style="4" customWidth="1"/>
-    <col min="28" max="28" width="14.8984375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="14.6328125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="13.36328125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="15.08984375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="15.6328125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.90625" style="4" customWidth="1"/>
+    <col min="26" max="27" width="14.6328125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="14.90625" style="4" customWidth="1"/>
     <col min="29" max="29" width="12" style="4" customWidth="1"/>
     <col min="30" max="30" width="12" style="2" customWidth="1"/>
     <col min="31" max="36" width="12" style="4" customWidth="1"/>
-    <col min="37" max="37" width="31.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="42.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="40.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="41.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="51" width="12.09765625" style="4" customWidth="1"/>
-    <col min="52" max="52" width="18.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="31.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="58" width="29.59765625" style="4" customWidth="1"/>
-    <col min="59" max="59" width="21.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="27.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="42.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="40.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="41.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="51" width="12.08984375" style="4" customWidth="1"/>
+    <col min="52" max="52" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="31.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="29.6328125" style="4" customWidth="1"/>
+    <col min="59" max="59" width="21.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="27.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="25" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1718,6 +1736,62 @@
         <v>94</v>
       </c>
     </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I2:K839">
     <cfRule type="expression" dxfId="20" priority="5">
